--- a/ClassificationReports/eth_report_1.xlsx
+++ b/ClassificationReports/eth_report_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/niko_miller_aalto_fi/Documents/Documents/GitHub/fe3/ClassificationReports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_C49A24245431921FD2FE31D2F8F2D3C2845A6747" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACC13976-0F58-4DA6-8B0E-435CAB94FF80}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14925" yWindow="6090" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>precision</t>
   </si>
@@ -41,13 +47,19 @@
   </si>
   <si>
     <t>weighted avg</t>
+  </si>
+  <si>
+    <t>y_askTickUp (eth)</t>
+  </si>
+  <si>
+    <t>y_bidTickDown (eth)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -81,35 +99,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,113 +472,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="9">
         <v>0.9037360504609413</v>
       </c>
-      <c r="C2">
-        <v>0.8657618295063679</v>
-      </c>
-      <c r="D2">
-        <v>0.8843414680467193</v>
-      </c>
-      <c r="E2">
+      <c r="C3" s="9">
+        <v>0.86576182950636793</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.88434146804671931</v>
+      </c>
+      <c r="E3" s="10">
         <v>43028</v>
       </c>
+      <c r="F3" s="5">
+        <v>0.90307673598443394</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.86546081767749761</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.88386874085006606</v>
+      </c>
+      <c r="I3">
+        <v>42902</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.1961029923451635</v>
-      </c>
-      <c r="C3">
+      <c r="B4" s="9">
+        <v>0.19610299234516351</v>
+      </c>
+      <c r="C4" s="9">
         <v>0.2620420308722336</v>
       </c>
-      <c r="D3">
-        <v>0.2243273364113995</v>
-      </c>
-      <c r="E3">
+      <c r="D4" s="9">
+        <v>0.22432733641139951</v>
+      </c>
+      <c r="E4" s="10">
         <v>5377</v>
       </c>
+      <c r="F4" s="5">
+        <v>0.20823045267489709</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.27584953661639111</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.23731728288907999</v>
+      </c>
+      <c r="I4">
+        <v>5503</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="9">
         <v>0.7986984815618221</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="9">
         <v>0.7986984815618221</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="9">
         <v>0.7986984815618221</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="6">
         <v>0.7986984815618221</v>
       </c>
+      <c r="F5" s="5">
+        <v>0.79842991426505527</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.79842991426505527</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.79842991426505527</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.79842991426505527</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.5499195214030524</v>
-      </c>
-      <c r="C5">
-        <v>0.5639019301893008</v>
-      </c>
-      <c r="D5">
-        <v>0.5543344022290594</v>
-      </c>
-      <c r="E5">
+      <c r="B6" s="9">
+        <v>0.54991952140305245</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.56390193018930079</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.55433440222905939</v>
+      </c>
+      <c r="E6" s="10">
         <v>48405</v>
       </c>
+      <c r="F6" s="5">
+        <v>0.55565359432966555</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.57065517714694436</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.560593011869573</v>
+      </c>
+      <c r="I6">
+        <v>48405</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="9">
         <v>0.8251296471247459</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="9">
         <v>0.7986984815618221</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="9">
         <v>0.8110247448610336</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="10">
+        <v>48405</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.82408202268927067</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.79842991426505527</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.81036450217308431</v>
+      </c>
+      <c r="I7">
         <v>48405</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ClassificationReports/eth_report_1.xlsx
+++ b/ClassificationReports/eth_report_1.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/niko_miller_aalto_fi/Documents/Documents/GitHub/fe3/ClassificationReports/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_C49A24245431921FD2FE31D2F8F2D3C2845A6747" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACC13976-0F58-4DA6-8B0E-435CAB94FF80}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="6090" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>precision</t>
   </si>
@@ -47,19 +41,13 @@
   </si>
   <si>
     <t>weighted avg</t>
-  </si>
-  <si>
-    <t>y_askTickUp (eth)</t>
-  </si>
-  <si>
-    <t>y_bidTickDown (eth)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,18 +64,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -99,56 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -195,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,27 +188,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,24 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,208 +397,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.9037360504609413</v>
+      </c>
+      <c r="C2">
+        <v>0.8657618295063679</v>
+      </c>
+      <c r="D2">
+        <v>0.8843414680467193</v>
+      </c>
+      <c r="E2">
+        <v>43028</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0.9037360504609413</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.86576182950636793</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.88434146804671931</v>
-      </c>
-      <c r="E3" s="10">
-        <v>43028</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.90307673598443394</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.86546081767749761</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.88386874085006606</v>
-      </c>
-      <c r="I3">
-        <v>42902</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.1961029923451635</v>
+      </c>
+      <c r="C3">
+        <v>0.2620420308722336</v>
+      </c>
+      <c r="D3">
+        <v>0.2243273364113995</v>
+      </c>
+      <c r="E3">
+        <v>5377</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.19610299234516351</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.2620420308722336</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.22432733641139951</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5377</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.20823045267489709</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.27584953661639111</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.23731728288907999</v>
-      </c>
-      <c r="I4">
-        <v>5503</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.7986984815618221</v>
+      </c>
+      <c r="C4">
+        <v>0.7986984815618221</v>
+      </c>
+      <c r="D4">
+        <v>0.7986984815618221</v>
+      </c>
+      <c r="E4">
+        <v>0.7986984815618221</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.5499195214030524</v>
+      </c>
+      <c r="C5">
+        <v>0.5639019301893008</v>
+      </c>
+      <c r="D5">
+        <v>0.5543344022290594</v>
+      </c>
+      <c r="E5">
+        <v>48405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.8251296471247459</v>
+      </c>
+      <c r="C6">
         <v>0.7986984815618221</v>
       </c>
-      <c r="C5" s="9">
-        <v>0.7986984815618221</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.7986984815618221</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.7986984815618221</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.79842991426505527</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.79842991426505527</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.79842991426505527</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.79842991426505527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.54991952140305245</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.56390193018930079</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.55433440222905939</v>
-      </c>
-      <c r="E6" s="10">
-        <v>48405</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.55565359432966555</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.57065517714694436</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.560593011869573</v>
-      </c>
-      <c r="I6">
-        <v>48405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.8251296471247459</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.7986984815618221</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="D6">
         <v>0.8110247448610336</v>
       </c>
-      <c r="E7" s="10">
-        <v>48405</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.82408202268927067</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.79842991426505527</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.81036450217308431</v>
-      </c>
-      <c r="I7">
+      <c r="E6">
         <v>48405</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>